--- a/public/tables/Formation design.xlsx
+++ b/public/tables/Formation design.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12827C69-8A73-45C2-BE7D-47A7873CDA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="F2c9t4VJNtv+Isi9xGdQwwgORqlkWOfUCY42sLHxM9U="/>
@@ -32,20 +41,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>M</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
         <b/>
         <i/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>p</t>
     </r>
@@ -53,20 +62,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>q</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
         <b/>
         <i/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>p</t>
     </r>
@@ -116,65 +125,76 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="&quot;Simplified Arabic&quot;"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="&quot;Simplified Arabic&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -182,7 +202,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -198,56 +218,74 @@
     </fill>
   </fills>
   <borders count="23">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -256,35 +294,58 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -294,29 +355,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -326,33 +399,43 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -360,19 +443,23 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -382,110 +469,106 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -675,1311 +758,1110 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R992"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="8" width="9.71"/>
-    <col customWidth="1" min="9" max="9" width="13.57"/>
-    <col customWidth="1" min="10" max="10" width="9.71"/>
-    <col customWidth="1" min="11" max="16" width="22.29"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="16" width="22.33203125" customWidth="1"/>
+    <col min="17" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="14.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="15">
+    <row r="2" spans="1:18" ht="14.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" ht="16.8">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="1">
         <v>0.873</v>
       </c>
-      <c r="R3" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.8">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="21">
+      <c r="F4" s="10"/>
+      <c r="G4" s="3">
         <v>16.71</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="3">
         <v>45.35</v>
       </c>
-      <c r="I4" s="21">
-        <v>6.4269E-5</v>
-      </c>
-      <c r="J4" s="22">
+      <c r="I4" s="3">
+        <v>6.4269000000000004E-5</v>
+      </c>
+      <c r="J4" s="3">
         <v>14.14</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="23">
-        <v>75000.0</v>
-      </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23">
-        <v>517.0</v>
-      </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="15">
-        <v>0.869</v>
-      </c>
-      <c r="R4" s="25">
+      <c r="L4" s="16"/>
+      <c r="M4" s="15">
+        <v>75000</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="15">
+        <v>517</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="R4" s="4">
         <v>1.02</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="21">
+    <row r="5" spans="1:18" ht="16.8">
+      <c r="A5" s="28"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="3">
         <v>23.37</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="3">
         <v>38.69</v>
       </c>
-      <c r="I5" s="21">
-        <v>8.4316E-5</v>
-      </c>
-      <c r="J5" s="22">
+      <c r="I5" s="3">
+        <v>8.4315999999999997E-5</v>
+      </c>
+      <c r="J5" s="3">
         <v>19.8</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23">
-        <v>95000.0</v>
-      </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23">
-        <v>655.0</v>
-      </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="15">
-        <v>0.867</v>
-      </c>
-      <c r="R5" s="25">
+      <c r="L5" s="16"/>
+      <c r="M5" s="15">
+        <v>95000</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="15">
+        <v>655</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="R5" s="4">
         <v>1.04</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="28">
-        <v>73.0</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30">
+    <row r="6" spans="1:18" ht="16.8">
+      <c r="A6" s="31">
+        <v>73</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33">
         <v>2.875</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="21">
+      <c r="D6" s="34"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="3">
         <v>27.76</v>
       </c>
-      <c r="H6" s="21">
-        <v>34.3</v>
-      </c>
-      <c r="I6" s="21">
-        <v>9.5791E-5</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="H6" s="3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="I6" s="3">
+        <v>9.5791000000000005E-5</v>
+      </c>
+      <c r="J6" s="3">
         <v>23.1</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="23">
-        <v>105000.0</v>
-      </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="23">
-        <v>725.0</v>
-      </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="15">
-        <v>0.864</v>
-      </c>
-      <c r="R6" s="25">
+      <c r="L6" s="16"/>
+      <c r="M6" s="15">
+        <v>105000</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="15">
+        <v>725</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="R6" s="4">
         <v>1.06</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="28">
+    <row r="7" spans="1:18" ht="16.8">
+      <c r="A7" s="31">
         <v>76.2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="21">
+      <c r="F7" s="10"/>
+      <c r="G7" s="3">
         <v>34.01</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="3">
         <v>92.62</v>
       </c>
-      <c r="I7" s="21">
-        <v>1.86988E-4</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="I7" s="3">
+        <v>1.8698799999999999E-4</v>
+      </c>
+      <c r="J7" s="3">
         <v>29.02</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23">
-        <v>135000.0</v>
-      </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="23">
-        <v>930.0</v>
-      </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="15">
-        <v>0.862</v>
-      </c>
-      <c r="R7" s="25">
+      <c r="L7" s="16"/>
+      <c r="M7" s="15">
+        <v>135000</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="15">
+        <v>930</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="R7" s="4">
         <v>1.08</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="28">
-        <v>79.4</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="32">
+    <row r="8" spans="1:18" ht="16.8">
+      <c r="A8" s="31">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="7">
         <v>3.125</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="21">
+      <c r="D8" s="8"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="3">
         <v>45.6</v>
       </c>
-      <c r="H8" s="21">
-        <v>81.04</v>
-      </c>
-      <c r="I8" s="21">
-        <v>2.37458E-4</v>
-      </c>
-      <c r="J8" s="22">
-        <v>38.09</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-      <c r="Q8" s="15">
-        <v>0.859</v>
-      </c>
-      <c r="R8" s="25">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="28">
+      <c r="H8" s="3">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.3745799999999999E-4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.8">
+      <c r="A9" s="31">
         <v>82.6</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="32">
+      <c r="B9" s="32"/>
+      <c r="C9" s="7">
         <v>3.25</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="Q9" s="15">
-        <v>0.857</v>
-      </c>
-      <c r="R9" s="25">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="28">
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="1">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.8">
+      <c r="A10" s="31">
         <v>88.9</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="32">
+      <c r="B10" s="32"/>
+      <c r="C10" s="7">
         <v>3.5</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="15">
-        <v>0.854</v>
-      </c>
-      <c r="R10" s="25">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="28">
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.8">
+      <c r="A11" s="31">
         <v>95.3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="32">
+      <c r="B11" s="32"/>
+      <c r="C11" s="7">
         <v>3.75</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="15">
-        <v>0.852</v>
-      </c>
-      <c r="R11" s="25">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="28">
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.8">
+      <c r="A12" s="31">
         <v>101.6</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="15">
-        <v>0.849</v>
-      </c>
-      <c r="R12" s="25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="R12" s="4">
         <v>1.18</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="28">
+    <row r="13" spans="1:18" ht="16.8">
+      <c r="A13" s="31">
         <v>104.8</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32">
+      <c r="B13" s="32"/>
+      <c r="C13" s="7">
         <v>4.125</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="15">
-        <v>0.847</v>
-      </c>
-      <c r="R13" s="25">
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="R13" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="28">
-        <v>108.0</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="32">
+    <row r="14" spans="1:18" ht="16.8">
+      <c r="A14" s="31">
+        <v>108</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="7">
         <v>4.25</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="15">
-        <v>0.844</v>
-      </c>
-      <c r="R14" s="25">
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="R14" s="4">
         <v>1.22</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="28">
+    <row r="15" spans="1:18" ht="16.8">
+      <c r="A15" s="31">
         <v>114.3</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="32">
+      <c r="B15" s="32"/>
+      <c r="C15" s="7">
         <v>4.5</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="15">
-        <v>0.842</v>
-      </c>
-      <c r="R15" s="25">
+      <c r="D15" s="8"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="R15" s="4">
         <v>1.24</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="28">
+    <row r="16" spans="1:18" ht="16.8">
+      <c r="A16" s="31">
         <v>120.7</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="32">
+      <c r="B16" s="32"/>
+      <c r="C16" s="7">
         <v>4.75</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="15">
-        <v>0.839</v>
-      </c>
-      <c r="R16" s="25">
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="1">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="R16" s="4">
         <v>1.26</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="28">
-        <v>127.0</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="15">
-        <v>0.837</v>
-      </c>
-      <c r="R17" s="25">
+    <row r="17" spans="1:18" ht="16.8">
+      <c r="A17" s="31">
+        <v>127</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="R17" s="4">
         <v>1.28</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="28">
+    <row r="18" spans="1:18" ht="16.8">
+      <c r="A18" s="31">
         <v>133.4</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="32">
+      <c r="B18" s="32"/>
+      <c r="C18" s="7">
         <v>5.25</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="15">
-        <v>0.834</v>
-      </c>
-      <c r="R18" s="25">
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="R18" s="4">
         <v>1.3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="28">
-        <v>139.7</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="32">
+    <row r="19" spans="1:18" ht="16.8">
+      <c r="A19" s="31">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="7">
         <v>5.5</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="15">
-        <v>0.832</v>
-      </c>
-      <c r="R19" s="25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="1">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="R19" s="4">
         <v>1.32</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="28">
+    <row r="20" spans="1:18" ht="16.8">
+      <c r="A20" s="31">
         <v>146.1</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="32">
+      <c r="B20" s="32"/>
+      <c r="C20" s="7">
         <v>5.75</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="15">
-        <v>0.829</v>
-      </c>
-      <c r="R20" s="25">
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="R20" s="4">
         <v>1.34</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="28">
+    <row r="21" spans="1:18" ht="16.8">
+      <c r="A21" s="31">
         <v>152.4</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="15">
-        <v>0.827</v>
-      </c>
-      <c r="R21" s="25">
+      <c r="B21" s="32"/>
+      <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="R21" s="4">
         <v>1.36</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="28">
-        <v>158.8</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="32">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A22" s="31">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="7">
         <v>6.25</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="15">
-        <v>0.824</v>
-      </c>
-      <c r="R22" s="25">
+      <c r="D22" s="8"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="R22" s="4">
         <v>1.38</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="28">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A23" s="31">
         <v>161.9</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="32">
+      <c r="B23" s="32"/>
+      <c r="C23" s="7">
         <v>6.375</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="15">
-        <v>0.822</v>
-      </c>
-      <c r="R23" s="25">
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="R23" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="28">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A24" s="31">
         <v>165.1</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="32">
+      <c r="B24" s="32"/>
+      <c r="C24" s="7">
         <v>6.5</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="15">
-        <v>0.819</v>
-      </c>
-      <c r="R24" s="25">
+      <c r="D24" s="8"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R24" s="4">
         <v>1.42</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="28">
-        <v>168.3</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="32">
-        <v>6.625</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="15">
-        <v>0.817</v>
-      </c>
-      <c r="R25" s="25">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="28">
-        <v>171.5</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="32">
-        <v>6.75</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="15">
-        <v>0.814</v>
-      </c>
-      <c r="R26" s="25">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="36">
-        <v>177.8</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="30">
-        <v>7.0</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="15">
-        <v>0.812</v>
-      </c>
-      <c r="R27" s="25">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="28">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A25" s="31">
         <v>184.2</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="32">
+      <c r="B25" s="32"/>
+      <c r="C25" s="7">
         <v>7.25</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="15">
-        <v>0.809</v>
-      </c>
-      <c r="R28" s="25">
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="R25" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="28">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A26" s="31">
         <v>190.5</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="32">
+      <c r="B26" s="32"/>
+      <c r="C26" s="7">
         <v>7.5</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="15">
-        <v>0.807</v>
-      </c>
-      <c r="R29" s="25">
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="R26" s="4">
         <v>1.52</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="28">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A27" s="31">
         <v>196.9</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="32">
+      <c r="B27" s="32"/>
+      <c r="C27" s="7">
         <v>7.75</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="15">
-        <v>0.804</v>
-      </c>
-      <c r="R30" s="25">
+      <c r="D27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="1">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="R27" s="4">
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="28">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A28" s="31">
         <v>203.2</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="37">
-        <v>0.801</v>
-      </c>
-      <c r="R31" s="25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="7">
+        <v>8</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="R28" s="4">
         <v>1.56</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="28">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A29" s="31">
         <v>209.6</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="32">
+      <c r="B29" s="32"/>
+      <c r="C29" s="7">
         <v>8.25</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="28">
+      <c r="D29" s="8"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A30" s="31">
         <v>215.9</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="32">
+      <c r="B30" s="32"/>
+      <c r="C30" s="7">
         <v>8.5</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="28">
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A31" s="31">
         <v>222.3</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="32">
+      <c r="B31" s="32"/>
+      <c r="C31" s="7">
         <v>8.75</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="28">
+      <c r="D31" s="8"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A32" s="31">
         <v>228.6</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="28">
-        <v>235.0</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="32">
+      <c r="B32" s="32"/>
+      <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A33" s="31">
+        <v>235</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="7">
         <v>9.25</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="28">
+      <c r="D33" s="8"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A34" s="31">
         <v>241.3</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="32">
+      <c r="B34" s="32"/>
+      <c r="C34" s="7">
         <v>9.5</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="28">
+      <c r="D34" s="8"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A35" s="31">
         <v>247.7</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="32">
+      <c r="B35" s="32"/>
+      <c r="C35" s="7">
         <v>9.75</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="28">
-        <v>254.0</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="28">
-        <v>266.7</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="32">
-        <v>10.5</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="28">
-        <v>273.1</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="32">
-        <v>10.75</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="28">
-        <v>279.4</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="32">
-        <v>11.0</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="28">
-        <v>285.8</v>
-      </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="32">
-        <v>11.25</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="28">
-        <v>304.8</v>
-      </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="32">
-        <v>12.0</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="28">
-        <v>355.6</v>
-      </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-    </row>
+      <c r="D35" s="8"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A36" s="31">
+        <v>254</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="7">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2924,26 +2806,72 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="91">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="M1:N3"/>
     <mergeCell ref="O1:P3"/>
     <mergeCell ref="Q1:Q2"/>
@@ -2957,97 +2885,22 @@
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:F6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>